--- a/testDat/SKY-Daniel_EM_dp_mod_1_tab.xlsx
+++ b/testDat/SKY-Daniel_EM_dp_mod_1_tab.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpique/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dpique/Desktop/marLab/projects/aneuVis/testDat/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="3340" yWindow="1380" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="26" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/testDat/SKY-Daniel_EM_dp_mod_1_tab.xlsx
+++ b/testDat/SKY-Daniel_EM_dp_mod_1_tab.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="1380" windowWidth="28800" windowHeight="15940"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="26" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Chr. No.</t>
   </si>
@@ -135,6 +135,15 @@
   </si>
   <si>
     <t>HCT116 Cells</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -177,9 +186,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -462,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -509,12 +524,24 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="A4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -552,8 +579,8 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>27</v>
+      <c r="F6" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -573,7 +600,7 @@
         <v>2</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -583,8 +610,8 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" s="1">
-        <v>2</v>
+      <c r="C8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="D8" s="1">
         <v>2</v>
@@ -612,8 +639,8 @@
       <c r="E9" s="1">
         <v>2</v>
       </c>
-      <c r="F9" s="1">
-        <v>2</v>
+      <c r="F9" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -623,8 +650,8 @@
       <c r="B10" s="1">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
-        <v>2</v>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -692,8 +719,8 @@
       <c r="E13" s="1">
         <v>2</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
+      <c r="F13" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -710,7 +737,7 @@
         <v>2</v>
       </c>
       <c r="E14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <v>2</v>
@@ -720,20 +747,20 @@
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>30</v>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>2</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -749,28 +776,28 @@
       <c r="D16" s="1">
         <v>2</v>
       </c>
-      <c r="E16" s="1">
-        <v>2</v>
-      </c>
-      <c r="F16" s="1">
-        <v>1</v>
+      <c r="E16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
+      <c r="B17" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>2</v>
+      <c r="D17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="F17" s="1">
         <v>2</v>
@@ -790,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1">
         <v>2</v>
@@ -800,20 +827,20 @@
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
+      <c r="B19" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="C19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="1">
-        <v>2</v>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="E19" s="1">
         <v>2</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -840,57 +867,57 @@
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>31</v>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E22" s="1">
         <v>2</v>
       </c>
       <c r="F22" s="1">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>32</v>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>2</v>
       </c>
       <c r="F23" s="1">
         <v>2</v>
@@ -949,11 +976,11 @@
       <c r="D26" s="1">
         <v>2</v>
       </c>
-      <c r="E26" s="1">
-        <v>2</v>
-      </c>
-      <c r="F26" s="1">
-        <v>2</v>
+      <c r="E26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -981,19 +1008,19 @@
         <v>20</v>
       </c>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1027,6 +1054,9 @@
       <c r="F30" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="B7:G28">
+    <sortCondition ref="G7:G28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/testDat/SKY-Daniel_EM_dp_mod_1_tab.xlsx
+++ b/testDat/SKY-Daniel_EM_dp_mod_1_tab.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12340"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="26" r:id="rId1"/>
@@ -113,24 +113,9 @@
     <t>Chr. 22</t>
   </si>
   <si>
-    <t>2,t(1;12;2)</t>
-  </si>
-  <si>
     <t>2,t(8;10)</t>
   </si>
   <si>
-    <t>2,t(10;16)</t>
-  </si>
-  <si>
-    <t>1,t(10;16)</t>
-  </si>
-  <si>
-    <t>2,t(16;8)</t>
-  </si>
-  <si>
-    <t>2,t(18;17)</t>
-  </si>
-  <si>
     <t>Human SKY</t>
   </si>
   <si>
@@ -144,13 +129,28 @@
   </si>
   <si>
     <t>Source</t>
+  </si>
+  <si>
+    <t>2,t(1;12;4)</t>
+  </si>
+  <si>
+    <t>2,t(12;16)</t>
+  </si>
+  <si>
+    <t>1,t(12;16)</t>
+  </si>
+  <si>
+    <t>2,t(21;17)</t>
+  </si>
+  <si>
+    <t>2,t(16;11)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +161,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -183,10 +199,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -195,8 +213,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -475,27 +496,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -503,7 +524,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -522,39 +543,40 @@
       <c r="F3" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1">
         <v>45</v>
       </c>
       <c r="D5" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1">
         <v>44</v>
@@ -563,263 +585,263 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>2</v>
-      </c>
-      <c r="E7" s="1">
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>2</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1">
-        <v>2</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1">
-        <v>2</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1">
-        <v>2</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>2</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>31</v>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1">
-        <v>2</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
         <v>2</v>
       </c>
     </row>
@@ -827,39 +849,39 @@
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2</v>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1">
-        <v>2</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
     </row>
@@ -867,59 +889,59 @@
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2</v>
+      <c r="B21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1">
-        <v>1</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>2</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
         <v>2</v>
       </c>
     </row>
@@ -927,19 +949,19 @@
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>2</v>
-      </c>
-      <c r="F24" s="1">
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
         <v>2</v>
       </c>
     </row>
@@ -947,19 +969,19 @@
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1">
-        <v>2</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
         <v>2</v>
       </c>
     </row>
@@ -967,39 +989,39 @@
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>30</v>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
         <v>2</v>
       </c>
     </row>
@@ -1007,39 +1029,39 @@
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1">
-        <v>2</v>
-      </c>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>27</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29">
         <v>0</v>
       </c>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29">
         <v>0</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29">
         <v>0</v>
       </c>
     </row>

--- a/testDat/SKY-Daniel_EM_dp_mod_1_tab.xlsx
+++ b/testDat/SKY-Daniel_EM_dp_mod_1_tab.xlsx
@@ -128,9 +128,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>2,t(1;12;4)</t>
   </si>
   <si>
@@ -144,6 +141,9 @@
   </si>
   <si>
     <t>2,t(16;11)</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -547,7 +547,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -810,19 +810,19 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -890,19 +890,19 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -990,16 +990,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F26" s="1">
         <v>2</v>
